--- a/biology/Botanique/Jasione_vivace/Jasione_vivace.xlsx
+++ b/biology/Botanique/Jasione_vivace/Jasione_vivace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jasione laevis
 La Jasione vivace ou  Jasione des jardins (Jasione laevis syn. Jasione perennis) est une plante herbacée vivace de la famille des Campanulacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante de 2 à 50 cm de haut se reproduisant par stolons. Tige nue dans sa partie haute, feuilles allongées et poilues, inflorescence à bractées larges et dentées, calice glabre.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Jasione vivace croît dans les pelouses sèches et les rocailles uniquement sur sol siliceux dans les Vosges, le Massif central et les Pyrénées, à une altitude de 500 à 1 900 m. Elle est absente des Alpes et du Jura.
 </t>
